--- a/BalanceSheet/DKNG_bal.xlsx
+++ b/BalanceSheet/DKNG_bal.xlsx
@@ -534,10 +534,10 @@
         </is>
       </c>
       <c r="B12" s="0" t="n">
-        <v>-8686000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>100574000.0</v>
+        <v>24000000.0</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>32000000.0</v>
